--- a/data/trans_orig/P12_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P12_3_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E18DD17-1E02-4FB9-B7F5-B9D3490C0C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8D19E2-E841-4600-BE30-3CB58DAA4283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75B66694-0F94-4AB0-8914-CA6AF55BEF1E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1BFC5B2-BC10-4C33-A0F8-AC1BCCCC66AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
   <si>
     <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>95,98%</t>
   </si>
   <si>
     <t>98,81%</t>
@@ -116,19 +116,19 @@
     <t>94,78%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1318 +140,1336 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>94,5%</t>
   </si>
   <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>8,61%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>12,58%</t>
   </si>
   <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>87,42%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>94,45%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>10,94%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>94,2%</t>
+    <t>89,06%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>88,99%</t>
   </si>
   <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>90,63%</t>
   </si>
   <si>
     <t>12,32%</t>
   </si>
   <si>
-    <t>15,01%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>87,68%</t>
   </si>
   <si>
-    <t>84,99%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>12,75%</t>
+    <t>12,86%</t>
   </si>
   <si>
     <t>15,29%</t>
@@ -1460,16 +1478,19 @@
     <t>12,52%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>85,88%</t>
@@ -1478,13 +1499,16 @@
     <t>84,71%</t>
   </si>
   <si>
-    <t>87,25%</t>
+    <t>87,14%</t>
   </si>
   <si>
     <t>87,48%</t>
   </si>
   <si>
-    <t>88,39%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332A0ADF-CB2F-414B-A22F-12511CE58E95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B008392B-BF66-4F84-A693-DE762BCD43C1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2330,13 +2354,13 @@
         <v>29642</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -2345,13 +2369,13 @@
         <v>45237</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -2360,13 +2384,13 @@
         <v>74880</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2405,13 @@
         <v>609026</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>614</v>
@@ -2396,13 +2420,13 @@
         <v>644507</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1199</v>
@@ -2411,13 +2435,13 @@
         <v>1253532</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,7 +2497,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2485,13 +2509,13 @@
         <v>23603</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -2500,13 +2524,13 @@
         <v>44612</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2515,13 +2539,13 @@
         <v>68215</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2560,13 @@
         <v>495544</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>458</v>
@@ -2551,13 +2575,13 @@
         <v>471030</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>921</v>
@@ -2825,13 +2849,13 @@
         <v>133800</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2870,13 @@
         <v>452209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>581</v>
@@ -2861,13 +2885,13 @@
         <v>593300</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1053</v>
@@ -2876,13 +2900,13 @@
         <v>1045508</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2974,13 @@
         <v>166046</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>277</v>
@@ -2965,13 +2989,13 @@
         <v>286526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>439</v>
@@ -2980,13 +3004,13 @@
         <v>452571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3025,13 @@
         <v>3110498</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3020</v>
@@ -3016,28 +3040,28 @@
         <v>3092672</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6072</v>
       </c>
       <c r="N23" s="7">
-        <v>6203169</v>
+        <v>6203170</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,7 +3103,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3093,7 +3117,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3115,7 +3139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD1C420-4F9D-4EE8-8438-482E72CD61D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2CF8A0-CA17-46C9-B5BC-F8731C341FE3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3132,7 +3156,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3239,13 +3263,13 @@
         <v>20193</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3254,13 +3278,13 @@
         <v>14283</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3269,13 +3293,13 @@
         <v>34476</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3314,13 @@
         <v>433953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>405</v>
@@ -3305,13 +3329,13 @@
         <v>412937</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>830</v>
@@ -3320,13 +3344,13 @@
         <v>846890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3418,13 @@
         <v>33594</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -3409,13 +3433,13 @@
         <v>36729</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3424,13 +3448,13 @@
         <v>70324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3469,13 @@
         <v>652556</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>536</v>
@@ -3460,13 +3484,13 @@
         <v>572462</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1171</v>
@@ -3475,13 +3499,13 @@
         <v>1225017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3573,13 @@
         <v>42783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -3564,13 +3588,13 @@
         <v>80325</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -3579,13 +3603,13 @@
         <v>123108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3624,13 @@
         <v>639080</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>593</v>
@@ -3615,13 +3639,13 @@
         <v>629574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1202</v>
@@ -3630,13 +3654,13 @@
         <v>1268654</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,7 +3716,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3704,13 +3728,13 @@
         <v>55183</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -3719,13 +3743,13 @@
         <v>101392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3734,13 +3758,13 @@
         <v>156575</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3779,13 @@
         <v>555762</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>450</v>
@@ -3770,13 +3794,13 @@
         <v>513797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M14" s="7">
         <v>946</v>
@@ -3785,7 +3809,7 @@
         <v>1069559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>208</v>
@@ -4172,10 +4196,10 @@
         <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>430</v>
@@ -4184,13 +4208,13 @@
         <v>472276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>689</v>
@@ -4199,13 +4223,13 @@
         <v>748783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4244,13 @@
         <v>3144697</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2862</v>
@@ -4235,28 +4259,28 @@
         <v>3079998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5807</v>
       </c>
       <c r="N23" s="7">
-        <v>6224696</v>
+        <v>6224695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,7 +4322,7 @@
         <v>6496</v>
       </c>
       <c r="N24" s="7">
-        <v>6973479</v>
+        <v>6973478</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4336,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4334,7 +4358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C0F9C2-7E49-4DC6-A80B-71651DDFF81B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6970432B-1597-490F-B848-CF13EAF2E2F5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4351,7 +4375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4458,13 +4482,13 @@
         <v>6723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4473,13 +4497,13 @@
         <v>19546</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4488,13 +4512,13 @@
         <v>26270</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4533,13 @@
         <v>412740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>384</v>
@@ -4524,13 +4548,13 @@
         <v>375290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>771</v>
@@ -4539,13 +4563,13 @@
         <v>788028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4637,13 @@
         <v>31370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -4628,13 +4652,13 @@
         <v>33822</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -4643,13 +4667,13 @@
         <v>65192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4688,13 @@
         <v>559126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -4679,13 +4703,13 @@
         <v>529722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>1082</v>
@@ -4694,13 +4718,13 @@
         <v>1088848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4792,13 @@
         <v>30989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4783,13 +4807,13 @@
         <v>38402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4798,13 +4822,13 @@
         <v>69391</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4843,13 @@
         <v>638108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -4834,13 +4858,13 @@
         <v>620352</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1234</v>
@@ -4849,13 +4873,13 @@
         <v>1258460</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4935,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4923,13 +4947,13 @@
         <v>68246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -4938,13 +4962,13 @@
         <v>72146</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -4953,13 +4977,13 @@
         <v>140392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4998,13 @@
         <v>575568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
@@ -4989,13 +5013,13 @@
         <v>576931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M14" s="7">
         <v>1052</v>
@@ -5004,13 +5028,13 @@
         <v>1152500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5102,13 @@
         <v>49344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -5093,13 +5117,13 @@
         <v>89639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -5108,13 +5132,13 @@
         <v>138983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5153,13 @@
         <v>426523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>352</v>
@@ -5144,13 +5168,13 @@
         <v>404971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>729</v>
@@ -5159,13 +5183,13 @@
         <v>831494</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5257,13 @@
         <v>63413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -5248,13 +5272,13 @@
         <v>161790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -5263,13 +5287,13 @@
         <v>225202</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5308,13 @@
         <v>526928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>519</v>
@@ -5299,13 +5323,13 @@
         <v>614870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>1075</v>
@@ -5314,13 +5338,13 @@
         <v>1141799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5412,13 @@
         <v>250085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>373</v>
@@ -5403,13 +5427,13 @@
         <v>415345</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>614</v>
@@ -5418,13 +5442,13 @@
         <v>665430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5463,13 @@
         <v>3138993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>2958</v>
@@ -5454,13 +5478,13 @@
         <v>3122136</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>5943</v>
@@ -5469,13 +5493,13 @@
         <v>6261129</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,7 +5555,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5553,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614F6BEF-A02E-4385-906E-D0E847E0F2FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF26E970-FE18-4E5D-8A71-B5DC9A213F34}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5570,7 +5594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5677,13 +5701,13 @@
         <v>17072</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>179</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5692,13 +5716,13 @@
         <v>25038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5707,13 +5731,13 @@
         <v>42110</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>192</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5752,13 @@
         <v>360607</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>384</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -5743,13 +5767,13 @@
         <v>329919</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>358</v>
@@ -5758,13 +5782,13 @@
         <v>690526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5856,13 @@
         <v>36839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5847,13 +5871,13 @@
         <v>51557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -5862,13 +5886,13 @@
         <v>88396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5907,13 @@
         <v>391557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>413</v>
@@ -5898,13 +5922,13 @@
         <v>447020</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>409</v>
       </c>
       <c r="M8" s="7">
         <v>688</v>
@@ -5913,13 +5937,13 @@
         <v>838577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6011,13 @@
         <v>45143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>148</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>413</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -6002,13 +6026,13 @@
         <v>54602</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -6017,13 +6041,13 @@
         <v>99745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6062,13 @@
         <v>512109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>761</v>
@@ -6053,13 +6077,13 @@
         <v>528874</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="M11" s="7">
         <v>1265</v>
@@ -6068,13 +6092,13 @@
         <v>1040982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,7 +6154,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6142,13 +6166,13 @@
         <v>72496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>418</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>419</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -6157,13 +6181,13 @@
         <v>89353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -6172,13 +6196,13 @@
         <v>161850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>426</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6217,13 @@
         <v>651494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>427</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>429</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>1001</v>
@@ -6208,13 +6232,13 @@
         <v>656715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>1599</v>
@@ -6223,13 +6247,13 @@
         <v>1308209</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6321,13 @@
         <v>73578</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
@@ -6312,13 +6336,13 @@
         <v>105750</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M16" s="7">
         <v>251</v>
@@ -6327,13 +6351,13 @@
         <v>179328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>442</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6372,13 @@
         <v>523548</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>450</v>
       </c>
       <c r="H17" s="7">
         <v>832</v>
@@ -6363,13 +6387,13 @@
         <v>490495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M17" s="7">
         <v>1411</v>
@@ -6378,13 +6402,13 @@
         <v>1014043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6476,13 @@
         <v>117437</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H19" s="7">
         <v>369</v>
@@ -6467,13 +6491,13 @@
         <v>210787</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M19" s="7">
         <v>538</v>
@@ -6482,13 +6506,13 @@
         <v>328224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6527,13 @@
         <v>579821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
         <v>1335</v>
@@ -6518,13 +6542,13 @@
         <v>814048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>2193</v>
@@ -6533,13 +6557,13 @@
         <v>1393870</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6631,13 @@
         <v>362565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H22" s="7">
         <v>820</v>
@@ -6622,13 +6646,13 @@
         <v>537088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
         <v>1216</v>
@@ -6637,13 +6661,13 @@
         <v>899653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6682,13 @@
         <v>3019136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>4537</v>
@@ -6673,13 +6697,13 @@
         <v>3267070</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>7514</v>
@@ -6688,13 +6712,13 @@
         <v>6286206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6774,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P12_3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P12_3_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8D19E2-E841-4600-BE30-3CB58DAA4283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{195DE98A-A656-4023-BCF8-82A58C83E174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1BFC5B2-BC10-4C33-A0F8-AC1BCCCC66AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B777921F-525A-476B-B5DF-CDBB44C8C190}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="480">
   <si>
     <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>96,29%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1297 +140,1267 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>2,05%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>35/44</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>91,15%</t>
   </si>
   <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2016 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>83,16%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2015 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
   </si>
   <si>
     <t>80,72%</t>
@@ -1920,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B008392B-BF66-4F84-A693-DE762BCD43C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D26CC05-382E-4F81-AC01-A5B99147D6AD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2354,13 +2324,13 @@
         <v>29642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -2369,13 +2339,13 @@
         <v>45237</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>72</v>
@@ -2384,13 +2354,13 @@
         <v>74880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2375,13 @@
         <v>609026</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>614</v>
@@ -2420,13 +2390,13 @@
         <v>644507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1199</v>
@@ -2435,13 +2405,13 @@
         <v>1253532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2467,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2509,13 +2479,13 @@
         <v>23603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -2524,13 +2494,13 @@
         <v>44612</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2539,13 +2509,13 @@
         <v>68215</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2530,13 @@
         <v>495544</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>458</v>
@@ -2575,13 +2545,13 @@
         <v>471030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>921</v>
@@ -2590,10 +2560,10 @@
         <v>966574</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -2852,10 +2822,10 @@
         <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2840,13 @@
         <v>452209</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>581</v>
@@ -2885,13 +2855,13 @@
         <v>593300</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1053</v>
@@ -2900,13 +2870,13 @@
         <v>1045508</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2944,13 @@
         <v>166046</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>277</v>
@@ -2989,13 +2959,13 @@
         <v>286526</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>439</v>
@@ -3004,13 +2974,13 @@
         <v>452571</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,16 +2992,16 @@
         <v>3052</v>
       </c>
       <c r="D23" s="7">
-        <v>3110498</v>
+        <v>3110497</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>3020</v>
@@ -3040,13 +3010,13 @@
         <v>3092672</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6072</v>
@@ -3055,13 +3025,13 @@
         <v>6203170</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3043,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3117,7 +3087,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2CF8A0-CA17-46C9-B5BC-F8731C341FE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E501021-38CF-4631-AF1D-2A62BFC6D962}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3156,7 +3126,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3263,13 +3233,13 @@
         <v>20193</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3278,13 +3248,13 @@
         <v>14283</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -3293,13 +3263,13 @@
         <v>34476</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,10 +3284,10 @@
         <v>433953</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>153</v>
@@ -3424,7 +3394,7 @@
         <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -3433,13 +3403,13 @@
         <v>36729</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3448,13 +3418,13 @@
         <v>70324</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3439,13 @@
         <v>652556</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>536</v>
@@ -3484,13 +3454,13 @@
         <v>572462</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1171</v>
@@ -3499,13 +3469,13 @@
         <v>1225017</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3543,13 @@
         <v>42783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -3588,13 +3558,13 @@
         <v>80325</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -3603,13 +3573,13 @@
         <v>123108</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3594,13 @@
         <v>639080</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H11" s="7">
         <v>593</v>
@@ -3639,13 +3609,13 @@
         <v>629574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1202</v>
@@ -3654,13 +3624,13 @@
         <v>1268654</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3686,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3728,13 +3698,13 @@
         <v>55183</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>88</v>
@@ -3743,13 +3713,13 @@
         <v>101392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -3758,13 +3728,13 @@
         <v>156575</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3749,13 @@
         <v>555762</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>450</v>
@@ -3794,13 +3764,13 @@
         <v>513797</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>946</v>
@@ -3809,13 +3779,13 @@
         <v>1069559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3853,13 @@
         <v>48821</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -3898,13 +3868,13 @@
         <v>74162</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -3913,13 +3883,13 @@
         <v>122983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3904,13 @@
         <v>380608</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>336</v>
@@ -3949,13 +3919,13 @@
         <v>373638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>683</v>
@@ -3964,13 +3934,13 @@
         <v>754246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4008,13 @@
         <v>75934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -4053,13 +4023,13 @@
         <v>165385</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -4068,13 +4038,13 @@
         <v>241319</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4059,13 @@
         <v>482738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>542</v>
@@ -4104,13 +4074,13 @@
         <v>577590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>975</v>
@@ -4119,13 +4089,13 @@
         <v>1060328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4163,13 @@
         <v>276508</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>430</v>
@@ -4208,13 +4178,13 @@
         <v>472276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>689</v>
@@ -4223,13 +4193,13 @@
         <v>748783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4214,13 @@
         <v>3144697</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
         <v>2862</v>
@@ -4259,13 +4229,13 @@
         <v>3079998</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
         <v>5807</v>
@@ -4274,13 +4244,13 @@
         <v>6224695</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,7 +4306,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6970432B-1597-490F-B848-CF13EAF2E2F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF17180-8B10-49C2-B943-0A4F10213ADF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4375,7 +4345,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4482,13 +4452,13 @@
         <v>6723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -4497,13 +4467,13 @@
         <v>19546</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4512,13 +4482,13 @@
         <v>26270</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4503,13 @@
         <v>412740</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>384</v>
@@ -4548,13 +4518,13 @@
         <v>375290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>771</v>
@@ -4563,13 +4533,13 @@
         <v>788028</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4607,13 @@
         <v>31370</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -4652,13 +4622,13 @@
         <v>33822</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -4667,13 +4637,13 @@
         <v>65192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4658,13 @@
         <v>559126</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -4703,13 +4673,13 @@
         <v>529722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>1082</v>
@@ -4718,13 +4688,13 @@
         <v>1088848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4762,13 @@
         <v>30989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -4807,13 +4777,13 @@
         <v>38402</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -4822,13 +4792,13 @@
         <v>69391</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4813,13 @@
         <v>638108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H11" s="7">
         <v>624</v>
@@ -4858,13 +4828,13 @@
         <v>620352</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M11" s="7">
         <v>1234</v>
@@ -4873,13 +4843,13 @@
         <v>1258460</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4905,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4947,13 +4917,13 @@
         <v>68246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -4962,13 +4932,13 @@
         <v>72146</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -4977,13 +4947,13 @@
         <v>140392</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4968,13 @@
         <v>575568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
@@ -5013,13 +4983,13 @@
         <v>576931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1052</v>
@@ -5028,13 +4998,13 @@
         <v>1152500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5072,13 @@
         <v>49344</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -5117,13 +5087,13 @@
         <v>89639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>124</v>
@@ -5132,13 +5102,13 @@
         <v>138983</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5123,13 @@
         <v>426523</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>352</v>
@@ -5168,13 +5138,13 @@
         <v>404971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>729</v>
@@ -5183,13 +5153,13 @@
         <v>831494</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5227,13 @@
         <v>63413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>135</v>
@@ -5272,13 +5242,13 @@
         <v>161790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="M19" s="7">
         <v>205</v>
@@ -5287,13 +5257,13 @@
         <v>225202</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5278,13 @@
         <v>526928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>519</v>
@@ -5323,13 +5293,13 @@
         <v>614870</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>1075</v>
@@ -5338,13 +5308,13 @@
         <v>1141799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5382,13 @@
         <v>250085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H22" s="7">
         <v>373</v>
@@ -5427,13 +5397,13 @@
         <v>415345</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M22" s="7">
         <v>614</v>
@@ -5442,13 +5412,13 @@
         <v>665430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5433,13 @@
         <v>3138993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H23" s="7">
         <v>2958</v>
@@ -5478,28 +5448,28 @@
         <v>3122136</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M23" s="7">
         <v>5943</v>
       </c>
       <c r="N23" s="7">
-        <v>6261129</v>
+        <v>6261130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>97</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5511,7 @@
         <v>6557</v>
       </c>
       <c r="N24" s="7">
-        <v>6926559</v>
+        <v>6926560</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5555,7 +5525,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5577,7 +5547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF26E970-FE18-4E5D-8A71-B5DC9A213F34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2622D7AE-61FD-4909-A0C4-325E0422914F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5594,7 +5564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5701,13 +5671,13 @@
         <v>17072</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>382</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5716,13 +5686,13 @@
         <v>25038</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -5731,13 +5701,13 @@
         <v>42110</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5722,13 @@
         <v>360607</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -5767,13 +5737,13 @@
         <v>329919</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>358</v>
@@ -5782,13 +5752,13 @@
         <v>690526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5826,13 @@
         <v>36839</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -5871,13 +5841,13 @@
         <v>51557</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -5886,13 +5856,13 @@
         <v>88396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5877,13 @@
         <v>391557</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>413</v>
@@ -5922,13 +5892,13 @@
         <v>447020</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>688</v>
@@ -5937,13 +5907,13 @@
         <v>838577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +5981,13 @@
         <v>45143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -6026,13 +5996,13 @@
         <v>54602</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>416</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -6041,13 +6011,13 @@
         <v>99745</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6032,13 @@
         <v>512109</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>155</v>
+        <v>412</v>
       </c>
       <c r="H11" s="7">
         <v>761</v>
@@ -6077,13 +6047,13 @@
         <v>528874</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>423</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="M11" s="7">
         <v>1265</v>
@@ -6092,13 +6062,13 @@
         <v>1040982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,7 +6124,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6166,13 +6136,13 @@
         <v>72496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -6181,13 +6151,13 @@
         <v>89353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>205</v>
@@ -6196,13 +6166,13 @@
         <v>161850</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6187,13 @@
         <v>651494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>1001</v>
@@ -6232,13 +6202,13 @@
         <v>656715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>435</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
         <v>1599</v>
@@ -6247,13 +6217,13 @@
         <v>1308209</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6291,13 @@
         <v>73578</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H16" s="7">
         <v>169</v>
@@ -6336,13 +6306,13 @@
         <v>105750</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="M16" s="7">
         <v>251</v>
@@ -6351,13 +6321,13 @@
         <v>179328</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6342,13 @@
         <v>523548</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="H17" s="7">
         <v>832</v>
@@ -6387,13 +6357,13 @@
         <v>490495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="M17" s="7">
         <v>1411</v>
@@ -6402,13 +6372,13 @@
         <v>1014043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6446,13 @@
         <v>117437</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="H19" s="7">
         <v>369</v>
@@ -6491,13 +6461,13 @@
         <v>210787</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="M19" s="7">
         <v>538</v>
@@ -6506,13 +6476,13 @@
         <v>328224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6497,13 @@
         <v>579821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>453</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="H20" s="7">
         <v>1335</v>
@@ -6542,13 +6512,13 @@
         <v>814048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="M20" s="7">
         <v>2193</v>
@@ -6557,13 +6527,13 @@
         <v>1393870</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6601,13 @@
         <v>362565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="H22" s="7">
         <v>820</v>
@@ -6646,13 +6616,13 @@
         <v>537088</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>1216</v>
@@ -6661,13 +6631,13 @@
         <v>899653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6652,13 @@
         <v>3019136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H23" s="7">
         <v>4537</v>
@@ -6697,13 +6667,13 @@
         <v>3267070</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>7514</v>
@@ -6712,13 +6682,13 @@
         <v>6286206</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6744,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
